--- a/line_plot/test_data/mcc#0.1.xlsx
+++ b/line_plot/test_data/mcc#0.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,12 @@
       <c r="F1" s="1" t="n">
         <v>0.25</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,19 +468,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3460979007189662</v>
+        <v>0.312803523626474</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3744920976764735</v>
+        <v>0.3490516899113352</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3698904380026557</v>
+        <v>0.3183904518886939</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3888152527588416</v>
+        <v>0.3632406617779748</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4096976349116846</v>
+        <v>0.3623698682322344</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2656386691346188</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2697803815185577</v>
       </c>
     </row>
     <row r="3">
@@ -484,19 +496,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4033324836247509</v>
+        <v>0.3601859779282849</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4448789862369392</v>
+        <v>0.4102452951864702</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4512569368993332</v>
+        <v>0.408057295663702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4582951668566319</v>
+        <v>0.4223256397760706</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4880681480614114</v>
+        <v>0.4328975540204902</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2984339513868706</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2974148685164246</v>
       </c>
     </row>
     <row r="4">
@@ -506,19 +524,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4091061326082179</v>
+        <v>0.3707946683770851</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4477799919723101</v>
+        <v>0.3936677157029707</v>
       </c>
       <c r="D4" t="n">
-        <v>0.450099197475159</v>
+        <v>0.4169759434836468</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4663002281615756</v>
+        <v>0.4199877190950856</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4602468999604605</v>
+        <v>0.3948011201428362</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2621081865086174</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2838197781397725</v>
       </c>
     </row>
   </sheetData>
